--- a/PapaBancomer.xlsx
+++ b/PapaBancomer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>papa creditos Bancomer</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>comision 1</t>
+  </si>
+  <si>
+    <t>comision 2</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:I17"/>
+  <dimension ref="D2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,52 +453,52 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>385</v>
+        <v>157.5</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I16" si="0">G5*H5</f>
-        <v>385</v>
+        <f>G5*H5</f>
+        <v>157.5</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>337.5</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>G6*H6</f>
+        <v>337.5</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I7:I18" si="0">G7*H7</f>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -507,7 +513,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -522,7 +528,7 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -537,7 +543,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -552,7 +558,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -567,7 +573,7 @@
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -582,7 +588,7 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -597,7 +603,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -612,26 +618,56 @@
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="I17">
-        <f>SUM(I3:I16)</f>
-        <v>2433.3199999999997</v>
+      <c r="I19">
+        <f>SUM(I3:I18)</f>
+        <v>2928.3199999999997</v>
       </c>
     </row>
   </sheetData>
